--- a/dr/protected/commands/template/m_template_ones.xlsx
+++ b/dr/protected/commands/template/m_template_ones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -699,7 +699,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -710,7 +710,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>&gt;70% : 5
@@ -718,7 +718,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -1317,14 +1317,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1407,13 +1407,70 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,60 +1484,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1492,12 +1500,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1515,8 +1521,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1531,18 +1552,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1552,19 +1565,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1589,6 +1589,11 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1632,7 +1637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1673,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,25 +1787,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,109 +1883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,109 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,17 +1977,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2002,6 +2001,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2017,59 +2055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2096,6 +2086,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2109,205 +2114,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2316,25 +2321,25 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2357,7 +2362,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2378,7 +2383,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2396,7 +2401,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2426,22 +2431,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,13 +2464,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,7 +2479,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2483,7 +2488,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,7 +2497,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2501,19 +2506,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2528,7 +2533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2537,7 +2542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,7 +2551,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2555,13 +2560,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,7 +2578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2585,7 +2590,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,10 +2599,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2606,10 +2611,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2621,7 +2626,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2630,25 +2635,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2660,7 +2665,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2669,13 +2674,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2684,7 +2689,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2693,7 +2698,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,7 +2710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2720,7 +2725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2743,10 +2748,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2778,26 +2783,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3163,7 +3168,7 @@
   <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
